--- a/output/mresult/statisticsResult.xlsx
+++ b/output/mresult/statisticsResult.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,22 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="D2" t="n">
-        <v>2194</v>
+        <v>1673</v>
       </c>
       <c r="E2" t="n">
-        <v>1631</v>
+        <v>1642</v>
       </c>
       <c r="F2" t="n">
-        <v>1388</v>
+        <v>1282</v>
       </c>
       <c r="G2" t="n">
-        <v>1282</v>
+        <v>1193</v>
       </c>
       <c r="H2" t="n">
-        <v>111753</v>
+        <v>109441</v>
       </c>
     </row>
     <row r="3">
@@ -508,50 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="D3" t="n">
-        <v>2205</v>
+        <v>1694</v>
       </c>
       <c r="E3" t="n">
-        <v>1637</v>
+        <v>1647</v>
       </c>
       <c r="F3" t="n">
-        <v>1410</v>
+        <v>1277</v>
       </c>
       <c r="G3" t="n">
-        <v>1284</v>
+        <v>1205</v>
       </c>
       <c r="H3" t="n">
-        <v>111781</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>张亮方案三递归推理0.3276</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>107</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1547</v>
-      </c>
-      <c r="E4" t="n">
-        <v>948</v>
-      </c>
-      <c r="F4" t="n">
-        <v>610</v>
-      </c>
-      <c r="G4" t="n">
-        <v>333</v>
-      </c>
-      <c r="H4" t="n">
-        <v>114879</v>
+        <v>109461</v>
       </c>
     </row>
   </sheetData>
